--- a/수시 희망대학 조사(한지성).xlsx
+++ b/수시 희망대학 조사(한지성).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.180.50690"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.190.51131"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>1학년</t>
   </si>
@@ -514,13 +514,59 @@
   <si>
     <t>IT융합소프트웨어</t>
   </si>
+  <si>
+    <t>KGU학생부종합전형</t>
+  </si>
+  <si>
+    <t>성적70</t>
+  </si>
+  <si>
+    <t>1차: 서류평가100
+2차: 성적70
+면접30</t>
+  </si>
+  <si>
+    <t>1차 성적이 50점 미만이거나 2차 성적이 15점 미만인 경우 선발하지 않음</t>
+  </si>
+  <si>
+    <t>1차 성적이 50점 미만이거나 2차 성적이 
+15점 미만인 경우 선발하지 않음</t>
+  </si>
+  <si>
+    <t>을지대학교</t>
+  </si>
+  <si>
+    <t>강남대학교</t>
+  </si>
+  <si>
+    <t>을지대학교(성남)</t>
+  </si>
+  <si>
+    <t>의료공학</t>
+  </si>
+  <si>
+    <t>스마트의료정보학부</t>
+  </si>
+  <si>
+    <t>서류평가 100%(학생부 교과/비교과)</t>
+  </si>
+  <si>
+    <t>83.72
+(3.06)</t>
+  </si>
+  <si>
+    <t>4점대</t>
+  </si>
+  <si>
+    <t>의료공학전공</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -737,25 +783,27 @@
     <font>
       <sz val="12.0"/>
       <name val="맑은 고딕"/>
-      <scheme val="minor"/>
       <color rgb="FFFF0000"/>
     </font>
     <font>
       <sz val="12.0"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1650,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2191,188 +2239,278 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2427,55 +2565,6 @@
     <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9405620" y="7541895"/>
-          <a:ext cx="2689225" cy="1951355"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2744,7 +2833,7 @@
   <dimension ref="B2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:R19"/>
+      <selection activeCell="E22" sqref="E22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2755,7 +2844,9 @@
     <col min="8" max="9" width="8.50500011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="18.00499916" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" width="9.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="15" width="8.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="8.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="15" width="8.50500011" customWidth="1" outlineLevel="0"/>
     <col min="16" max="16" width="18.25499916" customWidth="1" outlineLevel="0"/>
     <col min="17" max="17" width="10.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -3002,66 +3093,66 @@
       <c r="T7" s="74"/>
     </row>
     <row r="8" spans="2:20" ht="32.250000" customHeight="1">
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195" t="s">
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="196" t="s">
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="191">
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="190">
         <v>2</v>
       </c>
-      <c r="L8" s="193" t="s">
+      <c r="L8" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="194"/>
-      <c r="N8" s="195" t="s">
+      <c r="M8" s="193"/>
+      <c r="N8" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="197"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="199" t="s">
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="191">
+      <c r="R8" s="190">
         <v>3.843</v>
       </c>
-      <c r="S8" s="191">
+      <c r="S8" s="190">
         <v>3.69</v>
       </c>
-      <c r="T8" s="200">
+      <c r="T8" s="199">
         <v>3.666</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="92.200000" customHeight="1">
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="205"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="204"/>
     </row>
     <row r="10" spans="2:20" ht="16.500000" customHeight="1">
       <c r="B10" s="125" t="s">
@@ -3203,10 +3294,10 @@
       </c>
       <c r="I14" s="181"/>
       <c r="J14" s="182"/>
-      <c r="K14" s="184">
+      <c r="K14" s="132">
         <v>2</v>
       </c>
-      <c r="L14" s="185" t="s">
+      <c r="L14" s="184" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="182"/>
@@ -3215,237 +3306,259 @@
       </c>
       <c r="O14" s="181"/>
       <c r="P14" s="182"/>
-      <c r="Q14" s="186" t="s">
+      <c r="Q14" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="184">
+      <c r="R14" s="132">
         <v>3.41</v>
       </c>
-      <c r="S14" s="184">
+      <c r="S14" s="132">
         <v>2.68</v>
       </c>
-      <c r="T14" s="209">
+      <c r="T14" s="208">
         <v>3.1</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B15" s="187"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="205"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="204"/>
     </row>
     <row r="16" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="227" t="s">
+      <c r="C16" s="214"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="225"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227" t="s">
+      <c r="F16" s="214"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="225"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="228">
+      <c r="I16" s="214"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="107">
         <v>21</v>
       </c>
-      <c r="L16" s="229" t="s">
+      <c r="L16" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="226"/>
-      <c r="N16" s="227" t="s">
+      <c r="M16" s="215"/>
+      <c r="N16" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="225"/>
-      <c r="P16" s="226"/>
-      <c r="Q16" s="238">
+      <c r="O16" s="214"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="220">
         <v>2.69</v>
       </c>
-      <c r="R16" s="239" t="s">
+      <c r="R16" s="221" t="s">
         <v>96</v>
       </c>
-      <c r="S16" s="239" t="s">
+      <c r="S16" s="221" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="240" t="s">
+      <c r="T16" s="222" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B17" s="232"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="235"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="228"/>
-      <c r="S17" s="228"/>
-      <c r="T17" s="237"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="121"/>
     </row>
     <row r="18" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="30">
-        <v>6</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="12"/>
+      <c r="B18" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="245" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="243"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="245" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="243"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="246">
+        <v>20</v>
+      </c>
+      <c r="L18" s="247" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="244"/>
+      <c r="N18" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="243"/>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="246">
+        <v>3.14</v>
+      </c>
+      <c r="S18" s="246"/>
+      <c r="T18" s="250"/>
     </row>
     <row r="19" spans="2:20" ht="129.050000" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="14"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="252"/>
+      <c r="P19" s="253"/>
+      <c r="Q19" s="255"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="256"/>
     </row>
     <row r="20" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="12"/>
+      <c r="B20" s="242" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="243"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="245" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="243"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="245" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="243"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="246">
+        <v>1</v>
+      </c>
+      <c r="L20" s="247" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="244"/>
+      <c r="N20" s="245" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="243"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="257" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="246">
+        <v>2.61</v>
+      </c>
+      <c r="S20" s="246"/>
+      <c r="T20" s="250"/>
     </row>
     <row r="21" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="14"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="253"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="253"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="252"/>
+      <c r="P21" s="253"/>
+      <c r="Q21" s="255"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="256"/>
     </row>
     <row r="22" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="12"/>
+      <c r="B22" s="242" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="243"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="245"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="244"/>
+      <c r="N22" s="245"/>
+      <c r="O22" s="243"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="249"/>
+      <c r="R22" s="246"/>
+      <c r="S22" s="246"/>
+      <c r="T22" s="250"/>
     </row>
     <row r="23" spans="2:20" ht="25.500000" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="14"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="254"/>
+      <c r="O23" s="252"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="255"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="256"/>
     </row>
     <row r="24" spans="2:20" ht="25.500000" customHeight="1">
       <c r="B24" s="11"/>
@@ -3864,6 +3977,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/수시 희망대학 조사(한지성).xlsx
+++ b/수시 희망대학 조사(한지성).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>1학년</t>
   </si>
@@ -349,9 +349,6 @@
 (3.06)</t>
   </si>
   <si>
-    <t>의료공학전공</t>
-  </si>
-  <si>
     <t>인성: 45
 전공적합성: 30
 발전가능성: 25</t>
@@ -372,6 +369,47 @@
   <si>
     <t>84.44
 (3.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울신학대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어, 수학, 영어, 사회, 과학 *상위 3과목*
+특성화고교, 예술고, 체육고 및 학력인정교(2년제, 방송
+고, 대안교육특성화학교), 직업교육 및 대안교육 위탁과
+정은 전체 교과목 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT융합소프트웨어학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>857.58
+(3.85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스마트의료정부학부)의료공학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성화고특별전형(학종)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(교과)
+특성화고교졸업자전형(정원 외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(2?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,6 +1213,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,43 +1321,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,79 +1360,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,52 +1426,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,23 +1462,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,10 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1476,9 +1517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1765,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22:Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1813,7 @@
     <col min="2" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="9.875" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="13" width="14.375" customWidth="1"/>
@@ -2088,158 +2126,158 @@
       <c r="T9" s="48"/>
     </row>
     <row r="10" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="55" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="61" t="s">
+      <c r="F10" s="84"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="62">
+      <c r="I10" s="84"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="87">
         <v>3</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="L10" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="57"/>
-      <c r="N10" s="64" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="70" t="s">
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="72" t="s">
+      <c r="R10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="72" t="s">
+      <c r="S10" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="74" t="s">
+      <c r="T10" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="75"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="50"/>
     </row>
     <row r="12" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="82" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="88" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="90">
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="65">
         <v>3</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="92" t="s">
+      <c r="M12" s="68"/>
+      <c r="N12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="93" t="s">
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="95">
+      <c r="R12" s="74">
         <v>3.8</v>
       </c>
-      <c r="S12" s="95">
+      <c r="S12" s="74">
         <v>4</v>
       </c>
-      <c r="T12" s="96">
+      <c r="T12" s="75">
         <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="97"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
       <c r="K14" s="39">
         <v>2</v>
       </c>
-      <c r="L14" s="102" t="s">
+      <c r="L14" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="100"/>
-      <c r="N14" s="101" t="s">
+      <c r="M14" s="116"/>
+      <c r="N14" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="103" t="s">
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="119" t="s">
         <v>40</v>
       </c>
       <c r="R14" s="39">
@@ -2248,7 +2286,7 @@
       <c r="S14" s="39">
         <v>2.68</v>
       </c>
-      <c r="T14" s="104">
+      <c r="T14" s="98">
         <v>3.1</v>
       </c>
     </row>
@@ -2274,494 +2312,512 @@
       <c r="T15" s="48"/>
     </row>
     <row r="16" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="111" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="111" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="113">
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="107">
         <v>21</v>
       </c>
-      <c r="L16" s="114" t="s">
+      <c r="L16" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="107"/>
-      <c r="N16" s="111" t="s">
+      <c r="M16" s="101"/>
+      <c r="N16" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="106"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="115">
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="109">
         <v>2.69</v>
       </c>
-      <c r="R16" s="117" t="s">
+      <c r="R16" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="117" t="s">
+      <c r="S16" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="118" t="s">
+      <c r="T16" s="112" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="119"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="113"/>
     </row>
     <row r="18" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="126" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="126" t="s">
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="128">
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="130">
         <v>20</v>
       </c>
-      <c r="L18" s="129" t="s">
+      <c r="L18" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="130" t="s">
+      <c r="M18" s="124"/>
+      <c r="N18" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="121"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="128">
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="130">
         <v>3.14</v>
       </c>
-      <c r="S18" s="128"/>
-      <c r="T18" s="133"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="120"/>
     </row>
     <row r="19" spans="2:20" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="134"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="121"/>
     </row>
     <row r="20" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="126" t="s">
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="130">
+        <v>1</v>
+      </c>
+      <c r="L20" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="124"/>
+      <c r="N20" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="130">
+        <v>2.91</v>
+      </c>
+      <c r="S20" s="130">
+        <v>3.89</v>
+      </c>
+      <c r="T20" s="120">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="121"/>
+    </row>
+    <row r="22" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="130">
+        <v>24</v>
+      </c>
+      <c r="L22" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="124"/>
+      <c r="N22" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="128">
-        <v>1</v>
-      </c>
-      <c r="L20" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="121"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="128">
-        <v>2.61</v>
-      </c>
-      <c r="S20" s="128"/>
-      <c r="T20" s="133"/>
-    </row>
-    <row r="21" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="134"/>
-    </row>
-    <row r="22" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="128">
-        <v>24</v>
-      </c>
-      <c r="L22" s="129" t="s">
+      <c r="O22" s="123"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="122"/>
-      <c r="N22" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="135" t="s">
+      <c r="R22" s="130">
+        <v>4.76</v>
+      </c>
+      <c r="S22" s="130">
+        <v>4.45</v>
+      </c>
+      <c r="T22" s="120">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="121"/>
+    </row>
+    <row r="24" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="128">
-        <v>4.76</v>
-      </c>
-      <c r="S22" s="128">
-        <v>4.45</v>
-      </c>
-      <c r="T22" s="133">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="123"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="134"/>
-    </row>
-    <row r="24" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="136"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="139"/>
-    </row>
-    <row r="25" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="140"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="124"/>
+      <c r="N24" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="123"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="120"/>
+    </row>
+    <row r="25" spans="2:20" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="121"/>
     </row>
     <row r="26" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="136"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="139"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="136"/>
     </row>
     <row r="27" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="140"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="137"/>
     </row>
     <row r="28" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="136"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="139"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="136"/>
     </row>
     <row r="29" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="140"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="140"/>
+      <c r="T29" s="137"/>
     </row>
     <row r="30" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="136"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="139"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="140"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="136"/>
     </row>
     <row r="31" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="140"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="137"/>
     </row>
     <row r="32" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="136"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="139"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="136"/>
     </row>
     <row r="33" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="140"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="140"/>
+      <c r="S33" s="140"/>
+      <c r="T33" s="137"/>
     </row>
     <row r="34" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="136"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="139"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="140"/>
+      <c r="S34" s="140"/>
+      <c r="T34" s="136"/>
     </row>
     <row r="35" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="148"/>
-      <c r="R35" s="149"/>
-      <c r="S35" s="149"/>
-      <c r="T35" s="150"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="150"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="159">
@@ -2927,6 +2983,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>